--- a/create_forecast_basic/current/Intermediates/forecast_2020_240624_age_dis_type.xlsx
+++ b/create_forecast_basic/current/Intermediates/forecast_2020_240624_age_dis_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C748"/>
+  <dimension ref="A1:C823"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7801</v>
+        <v>7661</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2336,13 +2336,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8410</v>
+        <v>7801</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8411</v>
+        <v>8410</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8412</v>
+        <v>8411</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2381,13 +2381,13 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8441</v>
+        <v>8412</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2396,13 +2396,13 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8442</v>
+        <v>8441</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8443</v>
+        <v>8442</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8444</v>
+        <v>8443</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2441,13 +2441,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8445</v>
+        <v>8444</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8446</v>
+        <v>8445</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8447</v>
+        <v>8446</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8448</v>
+        <v>8447</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8449</v>
+        <v>8448</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8451</v>
+        <v>8449</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8452</v>
+        <v>8451</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8453</v>
+        <v>8452</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8454</v>
+        <v>8453</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8455</v>
+        <v>8454</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8456</v>
+        <v>8455</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8457</v>
+        <v>8456</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2621,13 +2621,13 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8458</v>
+        <v>8457</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8459</v>
+        <v>8458</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8460</v>
+        <v>8459</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2666,13 +2666,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8461</v>
+        <v>8460</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2681,13 +2681,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>חרדי מבוגר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8462</v>
+        <v>8461</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2696,13 +2696,13 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8463</v>
+        <v>8462</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8464</v>
+        <v>8463</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8465</v>
+        <v>8464</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8466</v>
+        <v>8465</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8472</v>
+        <v>8466</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2771,13 +2771,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8475</v>
+        <v>8472</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2786,13 +2786,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8476</v>
+        <v>8475</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8477</v>
+        <v>8476</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8481</v>
+        <v>8477</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8482</v>
+        <v>8481</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8483</v>
+        <v>8482</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8484</v>
+        <v>8483</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8485</v>
+        <v>8484</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8661</v>
+        <v>8485</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8662</v>
+        <v>8661</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8663</v>
+        <v>8662</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8664</v>
+        <v>8663</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8665</v>
+        <v>8664</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8666</v>
+        <v>8665</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8671</v>
+        <v>8666</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2996,13 +2996,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8672</v>
+        <v>8671</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8674</v>
+        <v>8672</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3026,13 +3026,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8815</v>
+        <v>8674</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3047,22 +3047,22 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>1</v>
+        <v>8815</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>U_Orthodox</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3071,13 +3071,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3101,13 +3101,13 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3236,13 +3236,13 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3266,13 +3266,13 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3296,13 +3296,13 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>501</v>
+        <v>408</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3506,13 +3506,13 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3641,13 +3641,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3656,13 +3656,13 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3671,13 +3671,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3686,13 +3686,13 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>701</v>
+        <v>611</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>801</v>
+        <v>708</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -3836,13 +3836,13 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -3866,13 +3866,13 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -3881,13 +3881,13 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1001</v>
+        <v>810</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -3956,13 +3956,13 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1401</v>
+        <v>1004</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4016,13 +4016,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4046,13 +4046,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4076,13 +4076,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>2001</v>
+        <v>1405</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3001</v>
+        <v>2001</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4106,13 +4106,13 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4136,13 +4136,13 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4151,13 +4151,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4166,13 +4166,13 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3101</v>
+        <v>3006</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4316,13 +4316,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3201</v>
+        <v>3113</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4391,13 +4391,13 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4406,13 +4406,13 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4421,13 +4421,13 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4466,13 +4466,13 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4481,13 +4481,13 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3301</v>
+        <v>3207</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4496,13 +4496,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4571,13 +4571,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3401</v>
+        <v>3310</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4631,13 +4631,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3501</v>
+        <v>3405</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4751,13 +4751,13 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4766,13 +4766,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3701</v>
+        <v>3509</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3708</v>
+        <v>3707</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3801</v>
+        <v>3709</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5051,13 +5051,13 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5066,13 +5066,13 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3901</v>
+        <v>3809</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5141,13 +5141,13 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5186,13 +5186,13 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5231,13 +5231,13 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>4006</v>
+        <v>3913</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5306,13 +5306,13 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>4008</v>
+        <v>4006</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5321,13 +5321,13 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4101</v>
+        <v>4009</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5351,13 +5351,13 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4102</v>
+        <v>4009</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5381,13 +5381,13 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4105</v>
+        <v>4102</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>4201</v>
+        <v>4103</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5411,13 +5411,13 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>4202</v>
+        <v>4105</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5426,13 +5426,13 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4301</v>
+        <v>4201</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5441,13 +5441,13 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4302</v>
+        <v>4202</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5456,13 +5456,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4401</v>
+        <v>4306</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5546,13 +5546,13 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>4402</v>
+        <v>4307</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -5561,13 +5561,13 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -5621,13 +5621,13 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -5636,13 +5636,13 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4501</v>
+        <v>4406</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -5651,13 +5651,13 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>4502</v>
+        <v>4407</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -5666,13 +5666,13 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -5681,13 +5681,13 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -5711,13 +5711,13 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>4506</v>
+        <v>4504</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4507</v>
+        <v>4505</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>4508</v>
+        <v>4506</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>4601</v>
+        <v>4507</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>4602</v>
+        <v>4508</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -5786,13 +5786,13 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -5801,13 +5801,13 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -5831,13 +5831,13 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4606</v>
+        <v>4604</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -5846,13 +5846,13 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>4607</v>
+        <v>4605</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -5861,13 +5861,13 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>4608</v>
+        <v>4606</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -5876,13 +5876,13 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>4611</v>
+        <v>4607</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -5891,13 +5891,13 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4612</v>
+        <v>4608</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -5906,13 +5906,13 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4701</v>
+        <v>4611</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -5921,13 +5921,13 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>4702</v>
+        <v>4612</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -5936,13 +5936,13 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -5951,13 +5951,13 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4704</v>
+        <v>4701</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -5966,13 +5966,13 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>4705</v>
+        <v>4702</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -5981,13 +5981,13 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>4706</v>
+        <v>4702</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -5996,13 +5996,13 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>4707</v>
+        <v>4703</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>4708</v>
+        <v>4704</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4709</v>
+        <v>4705</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -6041,13 +6041,13 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>4712</v>
+        <v>4706</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>4713</v>
+        <v>4706</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>4714</v>
+        <v>4707</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4715</v>
+        <v>4707</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4716</v>
+        <v>4708</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>4717</v>
+        <v>4708</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>4718</v>
+        <v>4709</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>4801</v>
+        <v>4709</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -6161,13 +6161,13 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>4802</v>
+        <v>4712</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>4803</v>
+        <v>4712</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>4804</v>
+        <v>4713</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>4805</v>
+        <v>4713</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>4901</v>
+        <v>4714</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -6236,13 +6236,13 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>4902</v>
+        <v>4714</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -6251,13 +6251,13 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>4903</v>
+        <v>4715</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>4904</v>
+        <v>4715</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>4905</v>
+        <v>4716</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>4906</v>
+        <v>4716</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -6311,13 +6311,13 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>4907</v>
+        <v>4717</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -6326,13 +6326,13 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>5001</v>
+        <v>4717</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>5002</v>
+        <v>4718</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -6356,13 +6356,13 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>5003</v>
+        <v>4718</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>5004</v>
+        <v>4801</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>5108</v>
+        <v>4801</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -6401,13 +6401,13 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>5109</v>
+        <v>4802</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>5110</v>
+        <v>4802</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>5112</v>
+        <v>4803</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>5303</v>
+        <v>4803</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -6461,13 +6461,13 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>5307</v>
+        <v>4804</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>5401</v>
+        <v>4804</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>5402</v>
+        <v>4805</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>5403</v>
+        <v>4805</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>5404</v>
+        <v>4901</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -6536,13 +6536,13 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>5405</v>
+        <v>4902</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>5406</v>
+        <v>4903</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>5407</v>
+        <v>4904</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>5408</v>
+        <v>4905</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -6596,13 +6596,13 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>5409</v>
+        <v>4906</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>5501</v>
+        <v>4907</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -6626,13 +6626,13 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>5601</v>
+        <v>5001</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>5602</v>
+        <v>5002</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -6656,13 +6656,13 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>5603</v>
+        <v>5003</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5604</v>
+        <v>5003</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>5605</v>
+        <v>5004</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -6701,13 +6701,13 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>5606</v>
+        <v>5108</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>5704</v>
+        <v>5109</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -6731,13 +6731,13 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>5705</v>
+        <v>5110</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -6746,13 +6746,13 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>5803</v>
+        <v>5112</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -6761,13 +6761,13 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>6200</v>
+        <v>5303</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>6201</v>
+        <v>5307</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -6791,13 +6791,13 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>6202</v>
+        <v>5307</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>6203</v>
+        <v>5401</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>6205</v>
+        <v>5402</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -6836,13 +6836,13 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>6206</v>
+        <v>5403</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>6207</v>
+        <v>5404</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -6866,13 +6866,13 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>6209</v>
+        <v>5405</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -6881,13 +6881,13 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>6210</v>
+        <v>5406</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -6896,13 +6896,13 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>6211</v>
+        <v>5406</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -6911,13 +6911,13 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>6212</v>
+        <v>5407</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -6926,13 +6926,13 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>6301</v>
+        <v>5407</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -6941,13 +6941,13 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>6302</v>
+        <v>5408</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>6303</v>
+        <v>5409</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -6971,13 +6971,13 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>6304</v>
+        <v>5501</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -6986,13 +6986,13 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>6305</v>
+        <v>5601</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -7001,13 +7001,13 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>6306</v>
+        <v>5601</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -7016,13 +7016,13 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>6307</v>
+        <v>5602</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -7031,13 +7031,13 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>6308</v>
+        <v>5602</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -7046,13 +7046,13 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>6309</v>
+        <v>5603</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -7061,13 +7061,13 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>6310</v>
+        <v>5603</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -7076,13 +7076,13 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>7001</v>
+        <v>5604</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -7091,13 +7091,13 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>7002</v>
+        <v>5604</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -7106,13 +7106,13 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>7003</v>
+        <v>5605</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -7121,13 +7121,13 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>7004</v>
+        <v>5605</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -7136,13 +7136,13 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>7011</v>
+        <v>5606</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -7151,13 +7151,13 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>7012</v>
+        <v>5606</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>7013</v>
+        <v>5704</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -7181,13 +7181,13 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>7014</v>
+        <v>5705</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>7021</v>
+        <v>5803</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>7022</v>
+        <v>6200</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -7226,13 +7226,13 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>7023</v>
+        <v>6201</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -7241,13 +7241,13 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>7024</v>
+        <v>6202</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -7256,13 +7256,13 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>7025</v>
+        <v>6203</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -7271,13 +7271,13 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>7026</v>
+        <v>6205</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -7286,13 +7286,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>7027</v>
+        <v>6206</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -7301,13 +7301,13 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>7028</v>
+        <v>6207</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -7316,13 +7316,13 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>7031</v>
+        <v>6209</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -7331,13 +7331,13 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>7032</v>
+        <v>6210</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -7346,13 +7346,13 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>7033</v>
+        <v>6211</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -7361,13 +7361,13 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>7034</v>
+        <v>6212</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -7376,13 +7376,13 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>7035</v>
+        <v>6301</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -7391,13 +7391,13 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>7036</v>
+        <v>6302</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>7042</v>
+        <v>6303</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>7051</v>
+        <v>6304</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>7052</v>
+        <v>6305</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -7451,13 +7451,13 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>7053</v>
+        <v>6306</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -7466,13 +7466,13 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>7062</v>
+        <v>6307</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -7481,13 +7481,13 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>7063</v>
+        <v>6308</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -7496,13 +7496,13 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>7064</v>
+        <v>6309</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -7511,13 +7511,13 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>7065</v>
+        <v>6310</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -7526,13 +7526,13 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7501</v>
+        <v>7001</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -7541,13 +7541,13 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7502</v>
+        <v>7002</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -7556,13 +7556,13 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7503</v>
+        <v>7003</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -7571,13 +7571,13 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7504</v>
+        <v>7004</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -7586,13 +7586,13 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7511</v>
+        <v>7011</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -7601,13 +7601,13 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7512</v>
+        <v>7012</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -7616,13 +7616,13 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7513</v>
+        <v>7013</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -7631,13 +7631,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>7514</v>
+        <v>7014</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -7646,13 +7646,13 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>7521</v>
+        <v>7021</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -7661,13 +7661,13 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>7531</v>
+        <v>7022</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -7676,13 +7676,13 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>7601</v>
+        <v>7023</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -7691,13 +7691,13 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7602</v>
+        <v>7024</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -7706,13 +7706,13 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7603</v>
+        <v>7025</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -7721,13 +7721,13 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7604</v>
+        <v>7026</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7605</v>
+        <v>7027</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7606</v>
+        <v>7028</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7611</v>
+        <v>7031</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -7781,13 +7781,13 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7612</v>
+        <v>7032</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -7796,13 +7796,13 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>7613</v>
+        <v>7033</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -7811,13 +7811,13 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>7614</v>
+        <v>7034</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -7826,13 +7826,13 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>7615</v>
+        <v>7035</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7621</v>
+        <v>7036</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -7856,13 +7856,13 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7622</v>
+        <v>7042</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>7623</v>
+        <v>7051</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>7624</v>
+        <v>7052</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -7901,13 +7901,13 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>7625</v>
+        <v>7053</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -7916,13 +7916,13 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>7626</v>
+        <v>7062</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7627</v>
+        <v>7063</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -7946,13 +7946,13 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>7628</v>
+        <v>7064</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -7961,13 +7961,13 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>7629</v>
+        <v>7065</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>7631</v>
+        <v>7501</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -7991,13 +7991,13 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>7641</v>
+        <v>7501</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>7642</v>
+        <v>7502</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>7701</v>
+        <v>7502</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>7702</v>
+        <v>7503</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>7703</v>
+        <v>7503</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>7704</v>
+        <v>7504</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>7711</v>
+        <v>7504</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -8096,13 +8096,13 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>7712</v>
+        <v>7511</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -8111,13 +8111,13 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>7721</v>
+        <v>7511</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>7825</v>
+        <v>7512</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -8141,13 +8141,13 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>7826</v>
+        <v>7512</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>7827</v>
+        <v>7513</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -8171,13 +8171,13 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>8235</v>
+        <v>7513</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>8311</v>
+        <v>7514</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>8312</v>
+        <v>7514</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>8313</v>
+        <v>7521</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>8314</v>
+        <v>7521</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -8246,13 +8246,13 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>8401</v>
+        <v>7531</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -8261,13 +8261,13 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>8402</v>
+        <v>7531</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -8276,13 +8276,13 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>8403</v>
+        <v>7601</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>8404</v>
+        <v>7601</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -8306,13 +8306,13 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>8405</v>
+        <v>7602</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>8406</v>
+        <v>7602</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>8407</v>
+        <v>7603</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>8408</v>
+        <v>7603</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>8409</v>
+        <v>7604</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>8413</v>
+        <v>7604</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -8396,13 +8396,13 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>8414</v>
+        <v>7605</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -8411,13 +8411,13 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>8415</v>
+        <v>7605</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -8426,13 +8426,13 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>8416</v>
+        <v>7606</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -8441,13 +8441,13 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>8417</v>
+        <v>7606</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -8456,13 +8456,13 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>8421</v>
+        <v>7611</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -8471,13 +8471,13 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>8422</v>
+        <v>7611</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -8486,13 +8486,13 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>8423</v>
+        <v>7612</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -8501,13 +8501,13 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>8431</v>
+        <v>7612</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -8516,13 +8516,13 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>8432</v>
+        <v>7613</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -8531,13 +8531,13 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>8433</v>
+        <v>7613</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -8546,13 +8546,13 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>8434</v>
+        <v>7614</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -8561,13 +8561,13 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>8435</v>
+        <v>7614</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -8576,13 +8576,13 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>8436</v>
+        <v>7615</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>8437</v>
+        <v>7615</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>8438</v>
+        <v>7621</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -8621,13 +8621,13 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>8467</v>
+        <v>7621</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>8471</v>
+        <v>7622</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -8651,13 +8651,13 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>8473</v>
+        <v>7622</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>8474</v>
+        <v>7623</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>8501</v>
+        <v>7623</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -8696,13 +8696,13 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>8502</v>
+        <v>7624</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -8711,13 +8711,13 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>8503</v>
+        <v>7624</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -8726,13 +8726,13 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>8504</v>
+        <v>7625</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -8741,13 +8741,13 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>8505</v>
+        <v>7625</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>8506</v>
+        <v>7626</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>8507</v>
+        <v>7626</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -8786,13 +8786,13 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>8508</v>
+        <v>7627</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -8801,13 +8801,13 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>8511</v>
+        <v>7627</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -8816,13 +8816,13 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>8513</v>
+        <v>7628</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -8831,13 +8831,13 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>8514</v>
+        <v>7628</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -8846,13 +8846,13 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>8601</v>
+        <v>7629</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>8602</v>
+        <v>7629</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -8876,13 +8876,13 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>8603</v>
+        <v>7631</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>8604</v>
+        <v>7641</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -8906,13 +8906,13 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>8605</v>
+        <v>7641</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -8921,13 +8921,13 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>8606</v>
+        <v>7642</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -8936,13 +8936,13 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>8611</v>
+        <v>7642</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>8612</v>
+        <v>7701</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -8966,13 +8966,13 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>8613</v>
+        <v>7702</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -8981,13 +8981,13 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>8614</v>
+        <v>7703</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>8615</v>
+        <v>7704</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>8616</v>
+        <v>7711</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -9026,13 +9026,13 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>8621</v>
+        <v>7712</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -9041,13 +9041,13 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>8622</v>
+        <v>7721</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -9056,13 +9056,13 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>8623</v>
+        <v>7825</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>8624</v>
+        <v>7826</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>8625</v>
+        <v>7827</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>8626</v>
+        <v>8235</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -9116,13 +9116,13 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>8627</v>
+        <v>8311</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>8631</v>
+        <v>8311</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -9146,13 +9146,13 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>8632</v>
+        <v>8312</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -9161,13 +9161,13 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>8633</v>
+        <v>8312</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -9176,13 +9176,13 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>8641</v>
+        <v>8313</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -9191,13 +9191,13 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>8642</v>
+        <v>8313</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -9206,13 +9206,13 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>8652</v>
+        <v>8314</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8653</v>
+        <v>8314</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -9236,13 +9236,13 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>8681</v>
+        <v>8401</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -9251,13 +9251,13 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8682</v>
+        <v>8402</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -9266,13 +9266,13 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>8683</v>
+        <v>8403</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>8684</v>
+        <v>8404</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>8685</v>
+        <v>8405</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -9311,13 +9311,13 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>8686</v>
+        <v>8406</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -9326,13 +9326,13 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>8687</v>
+        <v>8407</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -9341,13 +9341,13 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>8694</v>
+        <v>8408</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -9356,13 +9356,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>8811</v>
+        <v>8409</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>8814</v>
+        <v>8413</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>8821</v>
+        <v>8413</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -9401,13 +9401,13 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>8822</v>
+        <v>8414</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>8823</v>
+        <v>8415</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -9431,13 +9431,13 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>8824</v>
+        <v>8416</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -9446,13 +9446,13 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>8825</v>
+        <v>8417</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -9461,13 +9461,13 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>8831</v>
+        <v>8421</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -9476,13 +9476,13 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>8832</v>
+        <v>8422</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -9491,13 +9491,13 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>8861</v>
+        <v>8423</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -9506,13 +9506,13 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>8862</v>
+        <v>8431</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -9521,13 +9521,13 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>8863</v>
+        <v>8432</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -9536,13 +9536,13 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>8864</v>
+        <v>8433</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -9551,1843 +9551,1843 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>7041</v>
+        <v>8434</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>7060</v>
+        <v>8435</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>7061</v>
+        <v>8436</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>7301</v>
+        <v>8437</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>7302</v>
+        <v>8438</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>7310</v>
+        <v>8438</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>7311</v>
+        <v>8467</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>7312</v>
+        <v>8471</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>7313</v>
+        <v>8473</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>7321</v>
+        <v>8474</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>7341</v>
+        <v>8501</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>7731</v>
+        <v>8501</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>7802</v>
+        <v>8502</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>7803</v>
+        <v>8502</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>7811</v>
+        <v>8503</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>7821</v>
+        <v>8504</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>7822</v>
+        <v>8505</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>7823</v>
+        <v>8505</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>7824</v>
+        <v>8506</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>7831</v>
+        <v>8507</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>7841</v>
+        <v>8507</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>7851</v>
+        <v>8508</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8101</v>
+        <v>8508</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8111</v>
+        <v>8511</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8121</v>
+        <v>8513</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>8131</v>
+        <v>8514</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>8141</v>
+        <v>8601</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>8142</v>
+        <v>8602</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>8143</v>
+        <v>8603</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>8144</v>
+        <v>8604</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>8512</v>
+        <v>8605</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>8651</v>
+        <v>8606</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>8673</v>
+        <v>8611</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>8691</v>
+        <v>8612</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>8692</v>
+        <v>8613</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>8693</v>
+        <v>8614</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>8810</v>
+        <v>8615</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>8812</v>
+        <v>8616</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>8813</v>
+        <v>8621</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>8833</v>
+        <v>8622</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>8834</v>
+        <v>8623</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>8841</v>
+        <v>8624</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>8842</v>
+        <v>8625</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>8843</v>
+        <v>8626</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>8851</v>
+        <v>8627</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>8852</v>
+        <v>8631</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>8871</v>
+        <v>8632</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>8881</v>
+        <v>8633</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>8882</v>
+        <v>8641</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>201</v>
+        <v>8642</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>202</v>
+        <v>8652</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>203</v>
+        <v>8653</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>204</v>
+        <v>8681</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>205</v>
+        <v>8682</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>206</v>
+        <v>8683</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>207</v>
+        <v>8684</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>208</v>
+        <v>8685</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>209</v>
+        <v>8686</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>301</v>
+        <v>8687</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>303</v>
+        <v>8694</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>304</v>
+        <v>8811</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1101</v>
+        <v>8814</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1102</v>
+        <v>8821</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>1103</v>
+        <v>8822</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1104</v>
+        <v>8823</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>1201</v>
+        <v>8824</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1202</v>
+        <v>8825</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1203</v>
+        <v>8831</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1204</v>
+        <v>8832</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1205</v>
+        <v>8861</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1206</v>
+        <v>8862</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>1207</v>
+        <v>8863</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1301</v>
+        <v>8864</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1302</v>
+        <v>7041</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1303</v>
+        <v>7060</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1304</v>
+        <v>7061</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1305</v>
+        <v>7301</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1306</v>
+        <v>7302</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>2101</v>
+        <v>7310</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>2102</v>
+        <v>7311</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>2103</v>
+        <v>7312</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>2201</v>
+        <v>7313</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>2202</v>
+        <v>7321</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>2203</v>
+        <v>7341</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2301</v>
+        <v>7731</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2302</v>
+        <v>7802</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>2303</v>
+        <v>7803</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2401</v>
+        <v>7811</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>2402</v>
+        <v>7821</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>2403</v>
+        <v>7822</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2404</v>
+        <v>7823</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>2501</v>
+        <v>7824</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2502</v>
+        <v>7831</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>2504</v>
+        <v>7841</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>2505</v>
+        <v>7851</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>3307</v>
+        <v>8101</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>3601</v>
+        <v>8111</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>3602</v>
+        <v>8121</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>3603</v>
+        <v>8131</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>3604</v>
+        <v>8141</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>3605</v>
+        <v>8142</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>3606</v>
+        <v>8143</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>3607</v>
+        <v>8144</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>3609</v>
+        <v>8512</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>3610</v>
+        <v>8651</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>6401</v>
+        <v>8673</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>6402</v>
+        <v>8691</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>6403</v>
+        <v>8692</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>6501</v>
+        <v>8693</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>6502</v>
+        <v>8810</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>6503</v>
+        <v>8812</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>6504</v>
+        <v>8813</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>6505</v>
+        <v>8833</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>6506</v>
+        <v>8834</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>6507</v>
+        <v>8841</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>6508</v>
+        <v>8842</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>6509</v>
+        <v>8843</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>6510</v>
+        <v>8851</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>6511</v>
+        <v>8852</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>6601</v>
+        <v>8871</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>6602</v>
+        <v>8881</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>6603</v>
+        <v>8882</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Arab</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>6604</v>
+        <v>201</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
@@ -11396,13 +11396,13 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>6605</v>
+        <v>202</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>6606</v>
+        <v>203</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>6607</v>
+        <v>204</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>6608</v>
+        <v>205</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -11456,13 +11456,13 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>6609</v>
+        <v>206</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>6610</v>
+        <v>207</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>6611</v>
+        <v>208</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
@@ -11501,13 +11501,13 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>6701</v>
+        <v>209</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
@@ -11516,13 +11516,13 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>6702</v>
+        <v>301</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
@@ -11531,13 +11531,13 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>6703</v>
+        <v>303</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
@@ -11546,13 +11546,13 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>6704</v>
+        <v>304</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
@@ -11561,13 +11561,13 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>6705</v>
+        <v>1101</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>6801</v>
+        <v>1102</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
@@ -11591,13 +11591,13 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>6802</v>
+        <v>1103</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
@@ -11606,13 +11606,13 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>ערבי צעיר</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>6803</v>
+        <v>1104</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>7651</v>
+        <v>1201</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
@@ -11642,14 +11642,1139 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>2101</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>2102</v>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>2103</v>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>2201</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>2203</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>2302</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>2402</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>2403</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>2404</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>3307</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>3601</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>3602</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>3603</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>3604</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>3605</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>3606</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>3607</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>3609</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>3610</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>6401</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>6402</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>6403</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>6501</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>6502</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>6503</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>6504</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>6505</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>6506</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>6507</v>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>6508</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>6509</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>6510</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>6511</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>6601</v>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>6602</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>6603</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>6604</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>6605</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>6606</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>6607</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>6608</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>6609</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>6610</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>6611</v>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>6701</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>6702</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>6703</v>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>6704</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>6705</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>6801</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>6802</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>ערבי צעיר</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>6803</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>7651</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>7651</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>ערבי מאוזן</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
         <v>7652</v>
       </c>
-      <c r="B748" t="inlineStr">
+      <c r="B822" t="inlineStr">
         <is>
           <t>Arab</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr">
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>ערבי בינוני</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>7652</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Arab</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
         <is>
           <t>ערבי בינוני</t>
         </is>

--- a/create_forecast_basic/current/Intermediates/forecast_2020_240624_age_dis_type.xlsx
+++ b/create_forecast_basic/current/Intermediates/forecast_2020_240624_age_dis_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C823"/>
+  <dimension ref="A1:C748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>7661</v>
+        <v>7801</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -2336,13 +2336,13 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>7801</v>
+        <v>8410</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -2351,13 +2351,13 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8411</v>
+        <v>8412</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -2381,13 +2381,13 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8412</v>
+        <v>8441</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -2396,13 +2396,13 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8441</v>
+        <v>8442</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8442</v>
+        <v>8443</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8443</v>
+        <v>8444</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -2441,13 +2441,13 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8444</v>
+        <v>8445</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8445</v>
+        <v>8446</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8446</v>
+        <v>8447</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8447</v>
+        <v>8448</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8448</v>
+        <v>8449</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8449</v>
+        <v>8451</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -2531,13 +2531,13 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8451</v>
+        <v>8452</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -2546,13 +2546,13 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8452</v>
+        <v>8453</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8453</v>
+        <v>8454</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8455</v>
+        <v>8456</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8456</v>
+        <v>8457</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2621,13 +2621,13 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8457</v>
+        <v>8458</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8458</v>
+        <v>8459</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8459</v>
+        <v>8460</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -2666,13 +2666,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8460</v>
+        <v>8461</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -2681,13 +2681,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8461</v>
+        <v>8462</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -2696,13 +2696,13 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>חרדי מבוגר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8462</v>
+        <v>8463</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8463</v>
+        <v>8464</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8464</v>
+        <v>8465</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8465</v>
+        <v>8466</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8466</v>
+        <v>8472</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -2771,13 +2771,13 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8472</v>
+        <v>8475</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2786,13 +2786,13 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8475</v>
+        <v>8476</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8476</v>
+        <v>8477</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8477</v>
+        <v>8481</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8481</v>
+        <v>8482</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8482</v>
+        <v>8483</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8484</v>
+        <v>8485</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8485</v>
+        <v>8661</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8661</v>
+        <v>8662</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2921,13 +2921,13 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי צעיר</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8662</v>
+        <v>8663</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8663</v>
+        <v>8664</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8664</v>
+        <v>8665</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8665</v>
+        <v>8666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8666</v>
+        <v>8671</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -2996,13 +2996,13 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>חרדי צעיר</t>
+          <t>חרדי בינוני</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8671</v>
+        <v>8672</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8672</v>
+        <v>8674</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -3026,13 +3026,13 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>חרדי בינוני</t>
+          <t>חרדי מדורג</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8674</v>
+        <v>8815</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -3047,22 +3047,22 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8815</v>
+        <v>1</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>U_Orthodox</t>
+          <t>Jewish</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>חרדי מדורג</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -3071,13 +3071,13 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -3101,13 +3101,13 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -3221,13 +3221,13 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -3236,13 +3236,13 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -3266,13 +3266,13 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -3296,13 +3296,13 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>408</v>
+        <v>501</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -3506,13 +3506,13 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -3641,13 +3641,13 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -3656,13 +3656,13 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -3671,13 +3671,13 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -3686,13 +3686,13 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -3746,13 +3746,13 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -3836,13 +3836,13 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -3866,13 +3866,13 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -3881,13 +3881,13 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>810</v>
+        <v>1001</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -3956,13 +3956,13 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>1004</v>
+        <v>1401</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -4016,13 +4016,13 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -4046,13 +4046,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -4076,13 +4076,13 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>1405</v>
+        <v>2001</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -4106,13 +4106,13 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -4136,13 +4136,13 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -4151,13 +4151,13 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -4166,13 +4166,13 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3006</v>
+        <v>3101</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -4226,13 +4226,13 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -4316,13 +4316,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3113</v>
+        <v>3201</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -4391,13 +4391,13 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -4406,13 +4406,13 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -4421,13 +4421,13 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -4466,13 +4466,13 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -4481,13 +4481,13 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3207</v>
+        <v>3301</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -4496,13 +4496,13 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -4571,13 +4571,13 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3310</v>
+        <v>3401</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -4631,13 +4631,13 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3405</v>
+        <v>3501</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -4751,13 +4751,13 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -4766,13 +4766,13 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3509</v>
+        <v>3701</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3709</v>
+        <v>3801</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3805</v>
+        <v>3806</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -5051,13 +5051,13 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -5066,13 +5066,13 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3809</v>
+        <v>3901</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -5141,13 +5141,13 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -5186,13 +5186,13 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -5231,13 +5231,13 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>3913</v>
+        <v>4006</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -5306,13 +5306,13 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>4006</v>
+        <v>4008</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -5321,13 +5321,13 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4009</v>
+        <v>4101</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -5351,13 +5351,13 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4009</v>
+        <v>4102</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -5381,13 +5381,13 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>4102</v>
+        <v>4105</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>4103</v>
+        <v>4201</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -5411,13 +5411,13 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>4105</v>
+        <v>4202</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -5426,13 +5426,13 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>4201</v>
+        <v>4301</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -5441,13 +5441,13 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4202</v>
+        <v>4302</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -5456,13 +5456,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4301</v>
+        <v>4303</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4302</v>
+        <v>4304</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>4303</v>
+        <v>4305</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>4304</v>
+        <v>4306</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>4305</v>
+        <v>4307</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>4306</v>
+        <v>4401</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -5546,13 +5546,13 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>4307</v>
+        <v>4402</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -5561,13 +5561,13 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>4401</v>
+        <v>4403</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>4403</v>
+        <v>4405</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -5621,13 +5621,13 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4405</v>
+        <v>4407</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -5636,13 +5636,13 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>4406</v>
+        <v>4501</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -5651,13 +5651,13 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>4407</v>
+        <v>4502</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -5666,13 +5666,13 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>4501</v>
+        <v>4503</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -5681,13 +5681,13 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -5711,13 +5711,13 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>4504</v>
+        <v>4506</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>4505</v>
+        <v>4507</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>4506</v>
+        <v>4508</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>4507</v>
+        <v>4601</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>4508</v>
+        <v>4602</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -5786,13 +5786,13 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -5801,13 +5801,13 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -5816,13 +5816,13 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -5831,13 +5831,13 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>4604</v>
+        <v>4606</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -5846,13 +5846,13 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -5861,13 +5861,13 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>4606</v>
+        <v>4608</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -5876,13 +5876,13 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>4607</v>
+        <v>4611</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -5891,13 +5891,13 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>4608</v>
+        <v>4612</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -5906,13 +5906,13 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>4611</v>
+        <v>4701</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -5921,13 +5921,13 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>4612</v>
+        <v>4702</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -5936,13 +5936,13 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>4701</v>
+        <v>4703</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -5951,13 +5951,13 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>4701</v>
+        <v>4704</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -5966,13 +5966,13 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>4702</v>
+        <v>4705</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -5981,13 +5981,13 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>4702</v>
+        <v>4706</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -5996,13 +5996,13 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>4703</v>
+        <v>4707</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>4704</v>
+        <v>4708</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>4705</v>
+        <v>4709</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -6041,13 +6041,13 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>4706</v>
+        <v>4712</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>4706</v>
+        <v>4713</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>4707</v>
+        <v>4714</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>4707</v>
+        <v>4715</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>4708</v>
+        <v>4716</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>4708</v>
+        <v>4717</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>4709</v>
+        <v>4718</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -6146,13 +6146,13 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>4709</v>
+        <v>4801</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -6161,13 +6161,13 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>4712</v>
+        <v>4802</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>4712</v>
+        <v>4803</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>4713</v>
+        <v>4804</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>4713</v>
+        <v>4805</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>4714</v>
+        <v>4901</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -6236,13 +6236,13 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>4714</v>
+        <v>4902</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -6251,13 +6251,13 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>4715</v>
+        <v>4903</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>4715</v>
+        <v>4904</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>4716</v>
+        <v>4905</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -6302,7 +6302,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>4716</v>
+        <v>4906</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -6311,13 +6311,13 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>4717</v>
+        <v>4907</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -6326,13 +6326,13 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>4717</v>
+        <v>5001</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>4718</v>
+        <v>5002</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -6356,13 +6356,13 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>4718</v>
+        <v>5003</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>4801</v>
+        <v>5004</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>4801</v>
+        <v>5108</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -6401,13 +6401,13 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>4802</v>
+        <v>5109</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>4802</v>
+        <v>5110</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>4803</v>
+        <v>5112</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>4803</v>
+        <v>5303</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -6461,13 +6461,13 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>4804</v>
+        <v>5307</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>4804</v>
+        <v>5401</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>4805</v>
+        <v>5402</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>4805</v>
+        <v>5403</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>4901</v>
+        <v>5404</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -6536,13 +6536,13 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>4902</v>
+        <v>5405</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -6551,13 +6551,13 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>4903</v>
+        <v>5406</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>4904</v>
+        <v>5407</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>4905</v>
+        <v>5408</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -6596,13 +6596,13 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>4906</v>
+        <v>5409</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -6611,13 +6611,13 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>4907</v>
+        <v>5501</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -6626,13 +6626,13 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>5001</v>
+        <v>5601</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>5002</v>
+        <v>5602</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -6656,13 +6656,13 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>5003</v>
+        <v>5603</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>5003</v>
+        <v>5604</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>5004</v>
+        <v>5605</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -6701,13 +6701,13 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>5108</v>
+        <v>5606</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>5109</v>
+        <v>5704</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -6731,13 +6731,13 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>5110</v>
+        <v>5705</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -6746,13 +6746,13 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>5112</v>
+        <v>5803</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -6761,13 +6761,13 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>5303</v>
+        <v>6200</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>5307</v>
+        <v>6201</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -6791,13 +6791,13 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>5307</v>
+        <v>6202</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>5401</v>
+        <v>6203</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>5402</v>
+        <v>6205</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -6836,13 +6836,13 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>5403</v>
+        <v>6206</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -6851,13 +6851,13 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>5404</v>
+        <v>6207</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -6866,13 +6866,13 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>5405</v>
+        <v>6209</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -6881,13 +6881,13 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>5406</v>
+        <v>6210</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -6896,13 +6896,13 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>5406</v>
+        <v>6211</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -6911,13 +6911,13 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>5407</v>
+        <v>6212</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -6926,13 +6926,13 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>5407</v>
+        <v>6301</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -6941,13 +6941,13 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>5408</v>
+        <v>6302</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>5409</v>
+        <v>6303</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -6971,13 +6971,13 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>5501</v>
+        <v>6304</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -6986,13 +6986,13 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>5601</v>
+        <v>6305</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -7001,13 +7001,13 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>5601</v>
+        <v>6306</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -7016,13 +7016,13 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>5602</v>
+        <v>6307</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -7031,13 +7031,13 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>5602</v>
+        <v>6308</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -7046,13 +7046,13 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>5603</v>
+        <v>6309</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -7061,13 +7061,13 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>5603</v>
+        <v>6310</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -7076,13 +7076,13 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>5604</v>
+        <v>7001</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -7091,13 +7091,13 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>5604</v>
+        <v>7002</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -7106,13 +7106,13 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>5605</v>
+        <v>7003</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -7121,13 +7121,13 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>5605</v>
+        <v>7004</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -7136,13 +7136,13 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>5606</v>
+        <v>7011</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -7151,13 +7151,13 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>5606</v>
+        <v>7012</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>5704</v>
+        <v>7013</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -7181,13 +7181,13 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>5705</v>
+        <v>7014</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>5803</v>
+        <v>7021</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>6200</v>
+        <v>7022</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -7226,13 +7226,13 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>6201</v>
+        <v>7023</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -7241,13 +7241,13 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>6202</v>
+        <v>7024</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -7256,13 +7256,13 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>6203</v>
+        <v>7025</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -7271,13 +7271,13 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>6205</v>
+        <v>7026</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -7286,13 +7286,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>6206</v>
+        <v>7027</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -7301,13 +7301,13 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>6207</v>
+        <v>7028</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -7316,13 +7316,13 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>6209</v>
+        <v>7031</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -7331,13 +7331,13 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>6210</v>
+        <v>7032</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -7346,13 +7346,13 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>6211</v>
+        <v>7033</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -7361,13 +7361,13 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>6212</v>
+        <v>7034</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -7376,13 +7376,13 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>6301</v>
+        <v>7035</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -7391,13 +7391,13 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>6302</v>
+        <v>7036</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -7406,13 +7406,13 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>6303</v>
+        <v>7042</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>6304</v>
+        <v>7051</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>6305</v>
+        <v>7052</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -7451,13 +7451,13 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>6306</v>
+        <v>7053</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -7466,13 +7466,13 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>6307</v>
+        <v>7062</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -7481,13 +7481,13 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>6308</v>
+        <v>7063</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -7496,13 +7496,13 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>6309</v>
+        <v>7064</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -7511,13 +7511,13 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>6310</v>
+        <v>7065</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -7526,13 +7526,13 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>7001</v>
+        <v>7501</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -7541,13 +7541,13 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>7002</v>
+        <v>7502</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -7556,13 +7556,13 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>7003</v>
+        <v>7503</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -7571,13 +7571,13 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>7004</v>
+        <v>7504</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -7586,13 +7586,13 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>7011</v>
+        <v>7511</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -7601,13 +7601,13 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>7012</v>
+        <v>7512</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -7616,13 +7616,13 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>7013</v>
+        <v>7513</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -7631,13 +7631,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>7014</v>
+        <v>7514</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -7646,13 +7646,13 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>7021</v>
+        <v>7521</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -7661,13 +7661,13 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>7022</v>
+        <v>7531</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -7676,13 +7676,13 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>7023</v>
+        <v>7601</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -7691,13 +7691,13 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>7024</v>
+        <v>7602</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -7706,13 +7706,13 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>7025</v>
+        <v>7603</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -7721,13 +7721,13 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>7026</v>
+        <v>7604</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>7027</v>
+        <v>7605</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>7028</v>
+        <v>7606</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>7031</v>
+        <v>7611</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -7781,13 +7781,13 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>7032</v>
+        <v>7612</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -7796,13 +7796,13 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>7033</v>
+        <v>7613</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -7811,13 +7811,13 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>7034</v>
+        <v>7614</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -7826,13 +7826,13 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>7035</v>
+        <v>7615</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>7036</v>
+        <v>7621</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -7856,13 +7856,13 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>7042</v>
+        <v>7622</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>7051</v>
+        <v>7623</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>7052</v>
+        <v>7624</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -7901,13 +7901,13 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>7053</v>
+        <v>7625</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -7916,13 +7916,13 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>7062</v>
+        <v>7626</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>7063</v>
+        <v>7627</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -7946,13 +7946,13 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>7064</v>
+        <v>7628</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -7961,13 +7961,13 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>7065</v>
+        <v>7629</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>7501</v>
+        <v>7631</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -7991,13 +7991,13 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>7501</v>
+        <v>7641</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>7502</v>
+        <v>7642</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>7502</v>
+        <v>7701</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>7503</v>
+        <v>7702</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>7503</v>
+        <v>7703</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -8066,13 +8066,13 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>7504</v>
+        <v>7704</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>7504</v>
+        <v>7711</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -8096,13 +8096,13 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>7511</v>
+        <v>7712</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -8111,13 +8111,13 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>7511</v>
+        <v>7721</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>7512</v>
+        <v>7825</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -8141,13 +8141,13 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>7512</v>
+        <v>7826</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>7513</v>
+        <v>7827</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -8171,13 +8171,13 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>7513</v>
+        <v>8235</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>7514</v>
+        <v>8311</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>7514</v>
+        <v>8312</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>7521</v>
+        <v>8313</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>7521</v>
+        <v>8314</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -8246,13 +8246,13 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>7531</v>
+        <v>8401</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -8261,13 +8261,13 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>7531</v>
+        <v>8402</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -8276,13 +8276,13 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>7601</v>
+        <v>8403</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>7601</v>
+        <v>8404</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -8306,13 +8306,13 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>7602</v>
+        <v>8405</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>7602</v>
+        <v>8406</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>7603</v>
+        <v>8407</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>7603</v>
+        <v>8408</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>7604</v>
+        <v>8409</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>7604</v>
+        <v>8413</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -8396,13 +8396,13 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>7605</v>
+        <v>8414</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -8411,13 +8411,13 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>7605</v>
+        <v>8415</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -8426,13 +8426,13 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>7606</v>
+        <v>8416</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -8441,13 +8441,13 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>7606</v>
+        <v>8417</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -8456,13 +8456,13 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>7611</v>
+        <v>8421</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -8471,13 +8471,13 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>7611</v>
+        <v>8422</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -8486,13 +8486,13 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>7612</v>
+        <v>8423</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -8501,13 +8501,13 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>7612</v>
+        <v>8431</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -8516,13 +8516,13 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>7613</v>
+        <v>8432</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -8531,13 +8531,13 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>7613</v>
+        <v>8433</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -8546,13 +8546,13 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>7614</v>
+        <v>8434</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -8561,13 +8561,13 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>7614</v>
+        <v>8435</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -8576,13 +8576,13 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>7615</v>
+        <v>8436</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>7615</v>
+        <v>8437</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>7621</v>
+        <v>8438</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -8621,13 +8621,13 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>7621</v>
+        <v>8467</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>7622</v>
+        <v>8471</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -8651,13 +8651,13 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>7622</v>
+        <v>8473</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>7623</v>
+        <v>8474</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>7623</v>
+        <v>8501</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -8696,13 +8696,13 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>7624</v>
+        <v>8502</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -8711,13 +8711,13 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>7624</v>
+        <v>8503</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -8726,13 +8726,13 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>7625</v>
+        <v>8504</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -8741,13 +8741,13 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>7625</v>
+        <v>8505</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -8762,7 +8762,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>7626</v>
+        <v>8506</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>7626</v>
+        <v>8507</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -8786,13 +8786,13 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>7627</v>
+        <v>8508</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -8801,13 +8801,13 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>7627</v>
+        <v>8511</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -8816,13 +8816,13 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>7628</v>
+        <v>8513</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -8831,13 +8831,13 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>7628</v>
+        <v>8514</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -8846,13 +8846,13 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>7629</v>
+        <v>8601</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -8867,7 +8867,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>7629</v>
+        <v>8602</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -8876,13 +8876,13 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>7631</v>
+        <v>8603</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>7641</v>
+        <v>8604</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -8906,13 +8906,13 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>7641</v>
+        <v>8605</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -8921,13 +8921,13 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>7642</v>
+        <v>8606</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -8936,13 +8936,13 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>7642</v>
+        <v>8611</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -8957,7 +8957,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>7701</v>
+        <v>8612</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -8966,13 +8966,13 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>7702</v>
+        <v>8613</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -8981,13 +8981,13 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>7703</v>
+        <v>8614</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -8996,13 +8996,13 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>7704</v>
+        <v>8615</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>7711</v>
+        <v>8616</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -9026,13 +9026,13 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>7712</v>
+        <v>8621</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -9041,13 +9041,13 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>7721</v>
+        <v>8622</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -9056,13 +9056,13 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>7825</v>
+        <v>8623</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>7826</v>
+        <v>8624</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>7827</v>
+        <v>8625</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>8235</v>
+        <v>8626</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -9116,13 +9116,13 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>8311</v>
+        <v>8627</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>8311</v>
+        <v>8631</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -9146,13 +9146,13 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>8312</v>
+        <v>8632</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -9161,13 +9161,13 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>8312</v>
+        <v>8633</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -9176,13 +9176,13 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>8313</v>
+        <v>8641</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -9191,13 +9191,13 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>8313</v>
+        <v>8642</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -9206,13 +9206,13 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>8314</v>
+        <v>8652</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>8314</v>
+        <v>8653</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -9236,13 +9236,13 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>8401</v>
+        <v>8681</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -9251,13 +9251,13 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>8402</v>
+        <v>8682</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -9266,13 +9266,13 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>8403</v>
+        <v>8683</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>8404</v>
+        <v>8684</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -9302,7 +9302,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>8405</v>
+        <v>8685</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -9311,13 +9311,13 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>8406</v>
+        <v>8686</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -9326,13 +9326,13 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>8407</v>
+        <v>8687</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -9341,13 +9341,13 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>8408</v>
+        <v>8694</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -9356,13 +9356,13 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>8409</v>
+        <v>8811</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>8413</v>
+        <v>8814</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>8413</v>
+        <v>8821</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -9401,13 +9401,13 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>8414</v>
+        <v>8822</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>8415</v>
+        <v>8823</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -9431,13 +9431,13 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי זקן</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>8416</v>
+        <v>8824</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -9446,13 +9446,13 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>8417</v>
+        <v>8825</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -9461,13 +9461,13 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>כללי משפחות</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>8421</v>
+        <v>8831</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -9476,13 +9476,13 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>8422</v>
+        <v>8832</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -9491,13 +9491,13 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>8423</v>
+        <v>8861</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -9506,13 +9506,13 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>8431</v>
+        <v>8862</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -9521,13 +9521,13 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>8432</v>
+        <v>8863</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -9536,13 +9536,13 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>8433</v>
+        <v>8864</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -9551,1843 +9551,1843 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>כללי צעיר</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>8434</v>
+        <v>7041</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>8435</v>
+        <v>7060</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>8436</v>
+        <v>7061</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>8437</v>
+        <v>7301</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>8438</v>
+        <v>7302</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>8438</v>
+        <v>7310</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>8467</v>
+        <v>7311</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>8471</v>
+        <v>7312</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>8473</v>
+        <v>7313</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>8474</v>
+        <v>7321</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>8501</v>
+        <v>7341</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>8501</v>
+        <v>7731</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>8502</v>
+        <v>7802</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>8502</v>
+        <v>7803</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>8503</v>
+        <v>7811</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>8504</v>
+        <v>7821</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>8505</v>
+        <v>7822</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>8505</v>
+        <v>7823</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>8506</v>
+        <v>7824</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>8507</v>
+        <v>7831</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>8507</v>
+        <v>7841</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>8508</v>
+        <v>7851</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>8508</v>
+        <v>8101</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>8511</v>
+        <v>8111</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>8513</v>
+        <v>8121</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>8514</v>
+        <v>8131</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>8601</v>
+        <v>8141</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>8602</v>
+        <v>8142</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>8603</v>
+        <v>8143</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>8604</v>
+        <v>8144</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>8605</v>
+        <v>8512</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>8606</v>
+        <v>8651</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>8611</v>
+        <v>8673</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי מבוגר</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>8612</v>
+        <v>8691</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>8613</v>
+        <v>8692</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>8614</v>
+        <v>8693</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>8615</v>
+        <v>8810</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>8616</v>
+        <v>8812</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>8621</v>
+        <v>8813</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>8622</v>
+        <v>8833</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>8623</v>
+        <v>8834</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>8624</v>
+        <v>8841</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי מאוזן </t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>8625</v>
+        <v>8842</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>8626</v>
+        <v>8843</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>8627</v>
+        <v>8851</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>8631</v>
+        <v>8852</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>מתנחלי בינוני</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>8632</v>
+        <v>8871</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>8633</v>
+        <v>8881</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>8641</v>
+        <v>8882</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>hitnachlut</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t xml:space="preserve">מתנחלי צעיר </t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>8642</v>
+        <v>201</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>8652</v>
+        <v>202</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>8653</v>
+        <v>203</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>8681</v>
+        <v>204</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>8682</v>
+        <v>205</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>8683</v>
+        <v>206</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>8684</v>
+        <v>207</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>8685</v>
+        <v>208</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>8686</v>
+        <v>209</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>8687</v>
+        <v>301</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>8694</v>
+        <v>303</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>8811</v>
+        <v>304</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>8814</v>
+        <v>1101</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>8821</v>
+        <v>1102</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>8822</v>
+        <v>1103</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>8823</v>
+        <v>1104</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>כללי זקן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>8824</v>
+        <v>1201</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>8825</v>
+        <v>1202</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>כללי משפחות</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>8831</v>
+        <v>1203</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>8832</v>
+        <v>1204</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>8861</v>
+        <v>1205</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>8862</v>
+        <v>1206</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>כללי מאוזן</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>8863</v>
+        <v>1207</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>8864</v>
+        <v>1301</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jewish</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>כללי צעיר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>7041</v>
+        <v>1302</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>7060</v>
+        <v>1303</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>7061</v>
+        <v>1304</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>7301</v>
+        <v>1305</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>7302</v>
+        <v>1306</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>7310</v>
+        <v>2101</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>7311</v>
+        <v>2102</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>7312</v>
+        <v>2103</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>7313</v>
+        <v>2201</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>7321</v>
+        <v>2202</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>7341</v>
+        <v>2203</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>7731</v>
+        <v>2301</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>7802</v>
+        <v>2302</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>7803</v>
+        <v>2303</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>7811</v>
+        <v>2401</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>7821</v>
+        <v>2402</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>7822</v>
+        <v>2403</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>7823</v>
+        <v>2404</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>7824</v>
+        <v>2501</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>7831</v>
+        <v>2502</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>7841</v>
+        <v>2504</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>7851</v>
+        <v>2505</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>8101</v>
+        <v>3307</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>8111</v>
+        <v>3601</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>8121</v>
+        <v>3602</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>8131</v>
+        <v>3603</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>8141</v>
+        <v>3604</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>8142</v>
+        <v>3605</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>8143</v>
+        <v>3606</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>8144</v>
+        <v>3607</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>8512</v>
+        <v>3609</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>8651</v>
+        <v>3610</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>8673</v>
+        <v>6401</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>מתנחלי מבוגר</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>8691</v>
+        <v>6402</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>8692</v>
+        <v>6403</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>8693</v>
+        <v>6501</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>8810</v>
+        <v>6502</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>8812</v>
+        <v>6503</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>8813</v>
+        <v>6504</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>8833</v>
+        <v>6505</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>8834</v>
+        <v>6506</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>8841</v>
+        <v>6507</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי מאוזן </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>8842</v>
+        <v>6508</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>8843</v>
+        <v>6509</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>8851</v>
+        <v>6510</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>8852</v>
+        <v>6511</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>מתנחלי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>8871</v>
+        <v>6601</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>8881</v>
+        <v>6602</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>8882</v>
+        <v>6603</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>hitnachlut</t>
+          <t>Arab</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t xml:space="preserve">מתנחלי צעיר </t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>201</v>
+        <v>6604</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
@@ -11396,13 +11396,13 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי מאוזן</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>202</v>
+        <v>6605</v>
       </c>
       <c r="B732" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>203</v>
+        <v>6606</v>
       </c>
       <c r="B733" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>204</v>
+        <v>6607</v>
       </c>
       <c r="B734" t="inlineStr">
         <is>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>205</v>
+        <v>6608</v>
       </c>
       <c r="B735" t="inlineStr">
         <is>
@@ -11456,13 +11456,13 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>206</v>
+        <v>6609</v>
       </c>
       <c r="B736" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>207</v>
+        <v>6610</v>
       </c>
       <c r="B737" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>208</v>
+        <v>6611</v>
       </c>
       <c r="B738" t="inlineStr">
         <is>
@@ -11501,13 +11501,13 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>209</v>
+        <v>6701</v>
       </c>
       <c r="B739" t="inlineStr">
         <is>
@@ -11516,13 +11516,13 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>301</v>
+        <v>6702</v>
       </c>
       <c r="B740" t="inlineStr">
         <is>
@@ -11531,13 +11531,13 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>303</v>
+        <v>6703</v>
       </c>
       <c r="B741" t="inlineStr">
         <is>
@@ -11546,13 +11546,13 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי בינוני</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>304</v>
+        <v>6704</v>
       </c>
       <c r="B742" t="inlineStr">
         <is>
@@ -11561,13 +11561,13 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>ערבי מאוזן</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>1101</v>
+        <v>6705</v>
       </c>
       <c r="B743" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>1102</v>
+        <v>6801</v>
       </c>
       <c r="B744" t="inlineStr">
         <is>
@@ -11591,13 +11591,13 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>1103</v>
+        <v>6802</v>
       </c>
       <c r="B745" t="inlineStr">
         <is>
@@ -11606,13 +11606,13 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>ערבי בינוני</t>
+          <t>ערבי צעיר</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>1104</v>
+        <v>6803</v>
       </c>
       <c r="B746" t="inlineStr">
         <is>
@@ -11627,7 +11627,7 @@
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>1201</v>
+        <v>7651</v>
       </c>
       <c r="B747" t="inlineStr">
         <is>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>1202</v>
+        <v>7652</v>
       </c>
       <c r="B748" t="inlineStr">
         <is>
@@ -11650,1131 +11650,6 @@
         </is>
       </c>
       <c r="C748" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="n">
-        <v>1204</v>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="n">
-        <v>1206</v>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="n">
-        <v>1207</v>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="n">
-        <v>1302</v>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="n">
-        <v>2101</v>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="n">
-        <v>2102</v>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="n">
-        <v>2103</v>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="n">
-        <v>2201</v>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="n">
-        <v>2202</v>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="n">
-        <v>2203</v>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="n">
-        <v>2301</v>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="n">
-        <v>2302</v>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="n">
-        <v>2401</v>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="n">
-        <v>2402</v>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="n">
-        <v>2403</v>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="n">
-        <v>2404</v>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="n">
-        <v>2501</v>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="n">
-        <v>2502</v>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="n">
-        <v>2504</v>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="n">
-        <v>2505</v>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="n">
-        <v>3307</v>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="n">
-        <v>3601</v>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="n">
-        <v>3602</v>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="n">
-        <v>3603</v>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="n">
-        <v>3604</v>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="n">
-        <v>3605</v>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="n">
-        <v>3607</v>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="n">
-        <v>3609</v>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="n">
-        <v>3610</v>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="n">
-        <v>6401</v>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="n">
-        <v>6402</v>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="n">
-        <v>6403</v>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="n">
-        <v>6501</v>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="n">
-        <v>6503</v>
-      </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="n">
-        <v>6505</v>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="n">
-        <v>6506</v>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="n">
-        <v>6507</v>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="n">
-        <v>6508</v>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="n">
-        <v>6509</v>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="n">
-        <v>6510</v>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="n">
-        <v>6511</v>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="n">
-        <v>6601</v>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="n">
-        <v>6602</v>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="n">
-        <v>6603</v>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="n">
-        <v>6604</v>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="n">
-        <v>6605</v>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="n">
-        <v>6606</v>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="n">
-        <v>6607</v>
-      </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="n">
-        <v>6608</v>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="n">
-        <v>6609</v>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="n">
-        <v>6611</v>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="n">
-        <v>6701</v>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="n">
-        <v>6704</v>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="n">
-        <v>6801</v>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr">
-        <is>
-          <t>ערבי צעיר</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="n">
-        <v>7651</v>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="n">
-        <v>7651</v>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr">
-        <is>
-          <t>ערבי מאוזן</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="n">
-        <v>7652</v>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr">
-        <is>
-          <t>ערבי בינוני</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="n">
-        <v>7652</v>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>Arab</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr">
         <is>
           <t>ערבי בינוני</t>
         </is>
